--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18825" windowHeight="5010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="13005" windowHeight="4440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="提交日志" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:C7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>提交的HashCode值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ebd276f07d83a7c4cddd2bd8cbe2dd62024bc9e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何超杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1：SpringMVC Controller是单例模式，尽量避免在Controller类中声明成员变量，以免多线程共享数据，导致数据不安全情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2：自己写简单的分页器Pagination，在Controller设置分页的PathURL。暂未对分页插件进行CSS优化，后续处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3：Spring设置prefix：前缀, suffix：后缀，在Controller方便可省略跳转的jsp后缀及前缀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题4：在Servlet中转发首页，配置404，500错误并指向首页。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,9 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,7 +505,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -656,13 +678,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="54.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.25" style="7" customWidth="1"/>
   </cols>
@@ -674,7 +696,7 @@
       <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -691,7 +713,9 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="40.5">
       <c r="A3" s="6"/>
@@ -701,75 +725,87 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:4" ht="40.5">
+      <c r="A4" s="8">
+        <v>41979</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:4" ht="27">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
     </row>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="13005" windowHeight="4440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15660" windowHeight="4875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>问题4：在Servlet中转发首页，配置404，500错误并指向首页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a537570f9e06de4655ca347d6de15c46996487a5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +682,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -735,7 +739,9 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="6"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15660" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15390" windowHeight="5160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="提交日志" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:C7"/>
+  <oleSize ref="A4:D16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>何超杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,6 +104,30 @@
   </si>
   <si>
     <t>a537570f9e06de4655ca347d6de15c46996487a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何超杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring4配置文件声明事务?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1：解决spring4注解声明式事务支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:整理spring配置文件，分模块管理配置文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +148,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,11 +235,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +541,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,7 +576,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -552,17 +584,29 @@
       <c r="C2" s="8">
         <v>41978</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8">
+        <v>41980</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>41980</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
@@ -681,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -695,16 +739,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5">
@@ -712,20 +756,20 @@
         <v>41978</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -734,20 +778,20 @@
         <v>41979</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -755,7 +799,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -763,20 +807,26 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8">
+        <v>41980</v>
+      </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15390" windowHeight="5160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16260" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="提交日志" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A4:D16"/>
+  <oleSize ref="A7:E26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>问题2:整理spring配置文件，分模块管理配置文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:项目中添加solr查询。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -830,9 +834,13 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8">
+        <v>41981</v>
+      </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="16260" windowHeight="5895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="18705" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="提交日志" sheetId="2" r:id="rId2"/>
+    <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A7:E26"/>
+  <oleSize ref="A4:G20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +133,38 @@
   </si>
   <si>
     <t>问题1:项目中添加solr查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化solr提交方式?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加一张索引临时表，在添加数据同时，往索引临时表添加一条数据。索引临时表中的数据代表内存中未提交的数据。2.增加定时任务，各一段时间判断索引表中的数据，达到一定数据量后提交一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr索引重构?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:增加tb_tempindex内存索引表。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +280,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +584,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -615,9 +654,15 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
+        <v>41981</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -729,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -819,7 +864,9 @@
       <c r="A8" s="8">
         <v>41980</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -837,16 +884,24 @@
       <c r="A10" s="8">
         <v>41981</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8">
+        <v>41981</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
@@ -872,6 +927,147 @@
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="67.5">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12">
+        <v>41981</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18705" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="18300" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A4:G20"/>
+  <oleSize ref="A1:J15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>问题1:增加tb_tempindex内存索引表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6112b62e6070bb06d1e00d9b106a6f87c4c702ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:项目增加定时任务每个一段时间提交一次内存索引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr近实时搜索待解决?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,15 +675,25 @@
       <c r="C4" s="8">
         <v>41981</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>41981</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
@@ -774,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,12 +924,20 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8">
+        <v>41981</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18300" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="17895" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J15"/>
+  <oleSize ref="A7:F24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,22 @@
   </si>
   <si>
     <t>solr近实时搜索待解决?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何超杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:简单索引重构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:简单服务器中断重启后内存索引恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3:增加定时任务配置表,可控制定时任务启动停止。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +200,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +234,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,12 +278,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,9 +329,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -675,11 +709,15 @@
       <c r="C4" s="8">
         <v>41981</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8">
+        <v>41982</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -796,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -941,21 +979,31 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="8">
+        <v>41982</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
   </sheetData>
@@ -969,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="17895" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="17745" windowHeight="5130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A7:F24"/>
+  <oleSize ref="A7:F23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -693,11 +693,15 @@
       <c r="C3" s="8">
         <v>41980</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8">
+        <v>41982</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -832,10 +836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1005,6 +1009,912 @@
         <v>43</v>
       </c>
       <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="17745" windowHeight="5130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="13695" windowHeight="2940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>问题3:增加定时任务配置表,可控制定时任务启动停止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:更新solr3.5到solr4.5支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:更新mmseg4j1.8到mmseg4j1.9支持。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,15 +1019,23 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="8">
+        <v>41984</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="13695" windowHeight="2940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15525" windowHeight="3930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A7:F23"/>
+  <oleSize ref="A1:F9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>问题2:更新mmseg4j1.8到mmseg4j1.9支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:加入高亮显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +642,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -846,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1039,9 +1043,15 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="8">
+        <v>41985</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
@@ -1943,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15525" windowHeight="3930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15900" windowHeight="2970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:F9"/>
+  <oleSize ref="A10:D18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>问题1:加入高亮显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:增加home页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1055,9 +1059,15 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="8">
+        <v>41987</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
@@ -1953,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15900" windowHeight="2970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14730" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>问题1:增加home页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:增加数据搜索业务处理类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +859,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1071,9 +1075,15 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="8">
+        <v>41622</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14730" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="18255" windowHeight="4140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A10:D18"/>
+  <oleSize ref="A1:F6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>问题1:增加数据搜索业务处理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1：实现简单网络爬虫,并保存到数据库，目前只支持mysql。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:网络爬虫增加网络代理支持，使用HttpClient4.2实现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1086,16 +1094,24 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:4" ht="27">
+      <c r="A21" s="8">
+        <v>41990</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18255" windowHeight="4140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="18300" windowHeight="5370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:F6"/>
+  <oleSize ref="A1:H14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>问题2:网络爬虫增加网络代理支持，使用HttpClient4.2实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate中merge使用总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge先查询数据库后，只更新改变的数据，未做改变的不处理。新增加的数据会insert数据库。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,6 +375,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -378,7 +454,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -866,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1989,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2029,11 +2105,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12">
+        <v>41998</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>

--- a/test/develop/develop.xlsx
+++ b/test/develop/develop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18300" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19335" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="解决方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H14"/>
+  <oleSize ref="A7:G22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>问题名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>merge先查询数据库后，只更新改变的数据，未做改变的不处理。新增加的数据会insert数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:项目管理界面使用jquery easy ui 1.3.3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:增加简单数据搜集配置查询修改等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,15 +1199,23 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="8">
+        <v>41998</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
@@ -2065,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
